--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2006.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2006.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.161165156322496</v>
+        <v>1.014545559883118</v>
       </c>
       <c r="B1">
-        <v>2.300362708381424</v>
+        <v>3.117747783660889</v>
       </c>
       <c r="C1">
-        <v>8.083457706236899</v>
+        <v>6.682947158813477</v>
       </c>
       <c r="D1">
-        <v>2.448695892305612</v>
+        <v>1.890783429145813</v>
       </c>
       <c r="E1">
-        <v>1.222575179075461</v>
+        <v>1.329131603240967</v>
       </c>
     </row>
   </sheetData>
